--- a/PS-VRP/Dati_output/errori_lettura.xlsx
+++ b/PS-VRP/Dati_output/errori_lettura.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>235572</v>
+        <v>243335</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>243335</v>
+        <v>243569</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>243569</v>
+        <v>244023</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -597,7 +597,12 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>244023</v>
+        <v>245623</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -612,7 +617,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>245623</v>
+        <v>245089</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -631,33 +636,33 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>250759</v>
+      <c r="A8" s="1" t="n">
+        <v>250284</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>245090</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A9" t="n">
+        <v>251500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>245089</v>
+        <v>251519</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -676,145 +681,105 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>251109</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A11" t="n">
+        <v>251070</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>250284</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A12" t="n">
+        <v>251631</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>251211</v>
+        <v>251310</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>251346</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A14" t="n">
+        <v>251237</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>251519</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A15" t="n">
+        <v>252084</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250923</v>
+        <v>251752</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>251044</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A17" t="n">
+        <v>251573</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>250591</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A18" t="n">
+        <v>251362</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>245275</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
+        <v>251410</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>251050</v>
+      <c r="A20" s="1" t="n">
+        <v>252109</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>251227</v>
+      <c r="A21" s="1" t="n">
+        <v>251186</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>251005</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>251895</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -822,49 +787,34 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>250918</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
+        <v>251897</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>251310</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A24" t="n">
+        <v>251655</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>251081</v>
+        <v>251905</v>
       </c>
       <c r="H25" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -872,97 +822,42 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>251080</v>
+        <v>252235</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>251079</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A27" t="n">
+        <v>251082</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>251078</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A28" t="n">
+        <v>251218</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>250819</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A29" t="n">
+        <v>251219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>251247</v>
+        <v>252107</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -976,38 +871,48 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>251225</v>
+      <c r="A31" s="1" t="n">
+        <v>251792</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>251421</v>
+      <c r="A32" s="1" t="n">
+        <v>251972</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251268</v>
+        <v>251565</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>244960</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A34" t="n">
+        <v>252081</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>251371</v>
+        <v>251180</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1016,118 +921,198 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>251782</v>
+      <c r="A36" s="1" t="n">
+        <v>251780</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>250913</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A37" t="n">
+        <v>252112</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>251846</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A38" t="n">
+        <v>251773</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>251477</v>
+      <c r="A39" s="1" t="n">
+        <v>252111</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>251054</v>
+      <c r="A40" s="1" t="n">
+        <v>252025</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>251396</v>
+      <c r="A41" s="1" t="n">
+        <v>252058</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>251453</v>
+      <c r="A42" s="1" t="n">
+        <v>251944</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>251455</v>
+      <c r="A43" s="1" t="n">
+        <v>252337</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251391</v>
+        <v>251612</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>251651</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A45" t="n">
+        <v>252282</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>251840</v>
+      <c r="A46" s="1" t="n">
+        <v>251879</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>251548</v>
+      <c r="A47" s="1" t="n">
+        <v>252108</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>251547</v>
+      <c r="A48" s="1" t="n">
+        <v>251916</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>251742</v>
+      <c r="A49" s="1" t="n">
+        <v>251911</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>251395</v>
+      <c r="A50" s="1" t="n">
+        <v>251454</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>251466</v>
+        <v>252196</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -1142,12 +1127,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>251750</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252156</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -1161,18 +1141,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>251456</v>
+      <c r="A53" s="1" t="n">
+        <v>252258</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>251340</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251762</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -1187,7 +1177,12 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>251283</v>
+        <v>251943</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -1202,7 +1197,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>251245</v>
+        <v>251445</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -1217,7 +1212,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>251061</v>
+        <v>251910</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -1232,7 +1227,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>251062</v>
+        <v>251992</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -1247,7 +1242,12 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>251246</v>
+        <v>252279</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -1262,14 +1262,19 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>245350</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
+        <v>251985</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1277,14 +1282,24 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251164</v>
+        <v>251984</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>250874</v>
-      </c>
-      <c r="L62" t="inlineStr">
+        <v>251763</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1292,9 +1307,19 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>251257</v>
-      </c>
-      <c r="L63" t="inlineStr">
+        <v>251890</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1302,9 +1327,19 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>251229</v>
-      </c>
-      <c r="H64" t="inlineStr">
+        <v>251287</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1312,7 +1347,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>251463</v>
+        <v>251772</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -1327,7 +1362,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>251580</v>
+        <v>252195</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -1342,17 +1377,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>251650</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251741</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -1367,7 +1392,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>251416</v>
+        <v>251935</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -1382,7 +1407,12 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>250641</v>
+        <v>251677</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -1397,7 +1427,12 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>251464</v>
+        <v>252229</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -1412,7 +1447,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>251465</v>
+        <v>252375</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -1427,7 +1462,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>251462</v>
+        <v>252395</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -1442,7 +1477,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>251467</v>
+        <v>252410</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -1457,12 +1492,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>251795</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252325</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -1476,13 +1506,23 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>251284</v>
+      <c r="A75" s="1" t="n">
+        <v>252326</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>251520</v>
+        <v>251680</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -1497,7 +1537,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>251987</v>
+        <v>251679</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -1512,7 +1552,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>251374</v>
+        <v>251684</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -1527,7 +1567,12 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>250894</v>
+        <v>252228</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -1542,12 +1587,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>251746</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251798</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -1562,17 +1602,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>251585</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252110</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -1587,12 +1617,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>251260</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252121</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -1607,12 +1632,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>251373</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251978</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -1627,7 +1647,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>244354</v>
+        <v>251993</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -1647,12 +1667,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>244355</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251747</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -1667,12 +1682,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>251594</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251917</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -1687,7 +1697,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>251743</v>
+        <v>251390</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -1707,9 +1717,19 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>251424</v>
+        <v>251901</v>
       </c>
       <c r="H88" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1727,9 +1747,9 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>251397</v>
-      </c>
-      <c r="H89" t="inlineStr">
+        <v>251479</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1747,12 +1767,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>244204</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251681</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -1767,9 +1782,9 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>251561</v>
-      </c>
-      <c r="H91" t="inlineStr">
+        <v>251717</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1787,12 +1802,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>251564</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252293</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -1807,12 +1817,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>251809</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251979</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -1827,12 +1832,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>251566</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251898</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -1847,7 +1847,12 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>251626</v>
+        <v>251958</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -1862,9 +1867,9 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>251475</v>
-      </c>
-      <c r="H96" t="inlineStr">
+        <v>250914</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1882,7 +1887,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>251761</v>
+        <v>252042</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -1897,17 +1902,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>251502</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252082</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -1922,159 +1917,24 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>251706</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>251505</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>251557</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>251562</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>251546</v>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>250670</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>251485</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>251259</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>251252</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>251249</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>251251</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
+        <v>252290</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>

--- a/PS-VRP/Dati_output/errori_lettura.xlsx
+++ b/PS-VRP/Dati_output/errori_lettura.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>243335</v>
+        <v>235572</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>243569</v>
+        <v>243335</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>244023</v>
+        <v>243569</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -597,12 +597,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>245623</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>244023</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -617,7 +612,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>245089</v>
+        <v>245623</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -636,33 +631,33 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>250284</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A8" t="n">
+        <v>250759</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>251500</v>
+      <c r="A9" s="1" t="n">
+        <v>245090</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>251519</v>
+        <v>245089</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -681,105 +676,145 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>251070</v>
+      <c r="A11" s="1" t="n">
+        <v>251109</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>251631</v>
+      <c r="A12" s="1" t="n">
+        <v>250284</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>251310</v>
+        <v>251211</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>251237</v>
+      <c r="A14" s="1" t="n">
+        <v>251346</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>252084</v>
+      <c r="A15" s="1" t="n">
+        <v>251519</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251752</v>
+        <v>250923</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>251573</v>
+      <c r="A17" s="1" t="n">
+        <v>251044</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>251362</v>
+      <c r="A18" s="1" t="n">
+        <v>250591</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>251410</v>
-      </c>
-      <c r="I19" t="inlineStr">
+        <v>245275</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>252109</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A20" t="n">
+        <v>251050</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>251186</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A21" t="n">
+        <v>251227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>251895</v>
-      </c>
-      <c r="H22" t="inlineStr">
+        <v>251005</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -787,34 +822,49 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>251897</v>
-      </c>
-      <c r="H23" t="inlineStr">
+        <v>250918</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>251655</v>
+      <c r="A24" s="1" t="n">
+        <v>251310</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>251905</v>
+        <v>251081</v>
       </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -822,42 +872,97 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>252235</v>
+        <v>251080</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>251082</v>
+      <c r="A27" s="1" t="n">
+        <v>251079</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>251218</v>
+      <c r="A28" s="1" t="n">
+        <v>251078</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>251219</v>
+      <c r="A29" s="1" t="n">
+        <v>250819</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>252107</v>
+        <v>251247</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -871,48 +976,38 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>251792</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A31" t="n">
+        <v>251225</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>251972</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A32" t="n">
+        <v>251421</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251565</v>
+        <v>251268</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>252081</v>
+      <c r="A34" s="1" t="n">
+        <v>244960</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>251180</v>
+        <v>251371</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -921,198 +1016,118 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>251780</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A36" t="n">
+        <v>251782</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>252112</v>
+      <c r="A37" s="1" t="n">
+        <v>250913</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>251773</v>
+      <c r="A38" s="1" t="n">
+        <v>251846</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>252111</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A39" t="n">
+        <v>251477</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>252025</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A40" t="n">
+        <v>251054</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>252058</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A41" t="n">
+        <v>251396</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>251944</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A42" t="n">
+        <v>251453</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>252337</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A43" t="n">
+        <v>251455</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251612</v>
+        <v>251391</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>252282</v>
+      <c r="A45" s="1" t="n">
+        <v>251651</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>251879</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A46" t="n">
+        <v>251840</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>252108</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A47" t="n">
+        <v>251548</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>251916</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A48" t="n">
+        <v>251547</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>251911</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A49" t="n">
+        <v>251742</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>251454</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A50" t="n">
+        <v>251395</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>252196</v>
+        <v>251466</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -1127,7 +1142,12 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>252156</v>
+        <v>251750</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -1141,28 +1161,18 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>252258</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A53" t="n">
+        <v>251456</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>251762</v>
+        <v>251340</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -1177,12 +1187,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>251943</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251283</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -1197,7 +1202,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>251445</v>
+        <v>251245</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -1212,7 +1217,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>251910</v>
+        <v>251061</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -1227,7 +1232,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>251992</v>
+        <v>251062</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -1242,12 +1247,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>252279</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251246</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -1262,19 +1262,14 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>251985</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
+        <v>245350</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1282,24 +1277,14 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251984</v>
+        <v>251164</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>251763</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
+        <v>250874</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1307,19 +1292,9 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>251890</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
+        <v>251257</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1327,19 +1302,9 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>251287</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
+        <v>251229</v>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1347,7 +1312,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>251772</v>
+        <v>251463</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -1362,7 +1327,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>252195</v>
+        <v>251580</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -1377,7 +1342,17 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>251741</v>
+        <v>251650</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -1392,7 +1367,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>251935</v>
+        <v>251416</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -1407,12 +1382,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>251677</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>250641</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -1427,12 +1397,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>252229</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251464</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -1447,7 +1412,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>252375</v>
+        <v>251465</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -1462,7 +1427,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>252395</v>
+        <v>251462</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -1477,7 +1442,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>252410</v>
+        <v>251467</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -1492,7 +1457,12 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>252325</v>
+        <v>251795</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -1506,23 +1476,13 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>252326</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A75" t="n">
+        <v>251284</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>251680</v>
+        <v>251520</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -1537,7 +1497,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>251679</v>
+        <v>251987</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -1552,7 +1512,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>251684</v>
+        <v>251374</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -1567,12 +1527,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>252228</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>250894</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -1587,7 +1542,12 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>251798</v>
+        <v>251746</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -1602,7 +1562,17 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>252110</v>
+        <v>251585</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -1617,7 +1587,12 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>252121</v>
+        <v>251260</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -1632,7 +1607,12 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>251978</v>
+        <v>251373</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -1647,7 +1627,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>251993</v>
+        <v>244354</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -1667,7 +1647,12 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>251747</v>
+        <v>244355</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -1682,7 +1667,12 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>251917</v>
+        <v>251594</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -1697,7 +1687,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>251390</v>
+        <v>251743</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -1717,19 +1707,9 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>251901</v>
+        <v>251424</v>
       </c>
       <c r="H88" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1747,9 +1727,9 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>251479</v>
-      </c>
-      <c r="I89" t="inlineStr">
+        <v>251397</v>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1767,7 +1747,12 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>251681</v>
+        <v>244204</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -1782,9 +1767,9 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>251717</v>
-      </c>
-      <c r="I91" t="inlineStr">
+        <v>251561</v>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1802,7 +1787,12 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>252293</v>
+        <v>251564</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -1817,7 +1807,12 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>251979</v>
+        <v>251809</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -1832,7 +1827,12 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>251898</v>
+        <v>251566</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -1847,12 +1847,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>251958</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251626</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -1867,9 +1862,9 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>250914</v>
-      </c>
-      <c r="L96" t="inlineStr">
+        <v>251475</v>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1887,7 +1882,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>252042</v>
+        <v>251761</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -1902,7 +1897,17 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>252082</v>
+        <v>251502</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -1917,24 +1922,159 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>252290</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
+        <v>251706</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>251505</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>251557</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>251562</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>251546</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>250670</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>251485</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>251259</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>251252</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>251249</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>251251</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>

--- a/PS-VRP/Dati_output/errori_lettura.xlsx
+++ b/PS-VRP/Dati_output/errori_lettura.xlsx
@@ -491,12 +491,12 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Commesse::FASCIA</t>
+          <t>Commesse::fascia</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Commesse::FASCIA UTILE</t>
+          <t>Commesse::fascia utile</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">

--- a/PS-VRP/Dati_output/errori_lettura.xlsx
+++ b/PS-VRP/Dati_output/errori_lettura.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,17 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>233333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>243335</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -552,7 +542,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>243335</v>
+        <v>243569</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -567,7 +557,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>243569</v>
+        <v>244023</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -582,7 +572,12 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>244023</v>
+        <v>245623</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -597,7 +592,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>245623</v>
+        <v>245089</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -617,12 +612,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>245089</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>250284</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -637,9 +627,9 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>250284</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>251310</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -656,18 +646,23 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>251500</v>
+      <c r="A9" s="1" t="n">
+        <v>252466</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>251519</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251919</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -681,23 +676,43 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>251070</v>
+      <c r="A11" s="1" t="n">
+        <v>252665</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>251631</v>
+      <c r="A12" s="1" t="n">
+        <v>251790</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>251310</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>243525</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -711,35 +726,85 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>251237</v>
+      <c r="A14" s="1" t="n">
+        <v>243524</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>252084</v>
+      <c r="A15" s="1" t="n">
+        <v>243529</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>251752</v>
+      <c r="A16" s="1" t="n">
+        <v>252723</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>251573</v>
+      <c r="A17" s="1" t="n">
+        <v>252713</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>251362</v>
+      <c r="A18" s="1" t="n">
+        <v>252071</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>251410</v>
-      </c>
-      <c r="I19" t="inlineStr">
+        <v>252277</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -747,7 +812,12 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>252109</v>
+        <v>252364</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -762,7 +832,12 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>251186</v>
+        <v>252476</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -777,9 +852,14 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>251895</v>
-      </c>
-      <c r="H22" t="inlineStr">
+        <v>252207</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -787,27 +867,37 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>251897</v>
-      </c>
-      <c r="H23" t="inlineStr">
+        <v>244828</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>251655</v>
+      <c r="A24" s="1" t="n">
+        <v>252237</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>251905</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252201</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -822,12 +912,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>252235</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252063</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -841,23 +926,58 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>251082</v>
+      <c r="A27" s="1" t="n">
+        <v>252371</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>251218</v>
+      <c r="A28" s="1" t="n">
+        <v>252686</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>251219</v>
+      <c r="A29" s="1" t="n">
+        <v>252298</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>252107</v>
+        <v>252047</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -872,7 +992,12 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>251792</v>
+        <v>252144</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -887,7 +1012,12 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>251972</v>
+        <v>252146</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -901,20 +1031,55 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>251565</v>
+      <c r="A33" s="1" t="n">
+        <v>252417</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>252081</v>
+      <c r="A34" s="1" t="n">
+        <v>252418</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>251180</v>
-      </c>
-      <c r="H35" t="inlineStr">
+        <v>241783</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -922,27 +1087,52 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>251780</v>
+        <v>252140</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>252112</v>
+      <c r="A37" s="1" t="n">
+        <v>252547</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>251773</v>
+      <c r="A38" s="1" t="n">
+        <v>252350</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>252111</v>
+        <v>252638</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -957,9 +1147,9 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>252025</v>
-      </c>
-      <c r="I40" t="inlineStr">
+        <v>252470</v>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -977,7 +1167,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>252058</v>
+        <v>252790</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -992,7 +1182,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>251944</v>
+        <v>252336</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -1007,7 +1197,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>252337</v>
+        <v>252334</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -1021,25 +1211,40 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>251612</v>
+      <c r="A44" s="1" t="n">
+        <v>252345</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>252282</v>
+      <c r="A45" s="1" t="n">
+        <v>252347</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>251879</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
+        <v>252286</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1047,14 +1252,9 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>252108</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
+        <v>251849</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1062,7 +1262,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>251916</v>
+        <v>252220</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -1077,7 +1277,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>251911</v>
+        <v>251674</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -1092,12 +1292,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>251454</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251632</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -1112,7 +1307,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>252196</v>
+        <v>252085</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -1127,7 +1322,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>252156</v>
+        <v>252087</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -1142,12 +1337,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>252258</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252402</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -1162,7 +1352,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>251762</v>
+        <v>252546</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -1177,12 +1367,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>251943</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252230</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -1197,7 +1382,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>251445</v>
+        <v>252243</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -1212,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>251910</v>
+        <v>252244</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -1227,7 +1412,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>251992</v>
+        <v>252152</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -1242,12 +1427,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>252279</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251798</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -1262,77 +1442,42 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>251985</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
+        <v>251231</v>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>251984</v>
+      <c r="A61" s="1" t="n">
+        <v>252814</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>251763</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A62" t="n">
+        <v>252284</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>251890</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A63" t="n">
+        <v>252285</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>251287</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252636</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -1347,7 +1492,12 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>251772</v>
+        <v>252652</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -1362,7 +1512,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>252195</v>
+        <v>251685</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -1377,7 +1527,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>251741</v>
+        <v>252549</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -1392,7 +1542,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>251935</v>
+        <v>252978</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -1407,12 +1557,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>251677</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252785</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -1427,12 +1572,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>252229</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252784</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -1447,7 +1587,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>252375</v>
+        <v>252783</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -1462,7 +1602,12 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>252395</v>
+        <v>252983</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -1477,7 +1622,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>252410</v>
+        <v>252157</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -1492,7 +1637,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>252325</v>
+        <v>252980</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -1507,7 +1652,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>252326</v>
+        <v>252997</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -1522,7 +1667,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>251680</v>
+        <v>252999</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -1537,7 +1682,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>251679</v>
+        <v>251926</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -1552,7 +1697,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>251684</v>
+        <v>251495</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -1567,12 +1712,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>252228</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252456</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -1587,7 +1727,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>251798</v>
+        <v>252899</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -1602,7 +1742,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>252110</v>
+        <v>252467</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -1617,7 +1757,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>252121</v>
+        <v>252755</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -1625,316 +1765,6 @@
         </is>
       </c>
       <c r="P82" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>251978</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>251993</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>251747</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>251917</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>251390</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>251901</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>251479</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>251681</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>251717</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>252293</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>251979</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>251898</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>251958</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>250914</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>252042</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>252082</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>252290</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>

--- a/PS-VRP/Dati_output/errori_lettura.xlsx
+++ b/PS-VRP/Dati_output/errori_lettura.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,17 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>243335</v>
+        <v>233333</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -542,7 +552,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>243569</v>
+        <v>235572</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -557,7 +567,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>244023</v>
+        <v>243569</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -572,12 +582,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>245623</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>244023</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -592,7 +597,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>245089</v>
+        <v>245623</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -612,7 +617,12 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>250284</v>
+        <v>245089</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -627,12 +637,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>251310</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>250284</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -647,7 +652,12 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>252466</v>
+        <v>251310</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -662,7 +672,17 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>251919</v>
+        <v>251905</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -677,12 +697,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>252665</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251919</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -697,7 +712,12 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>251790</v>
+        <v>252665</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -712,7 +732,17 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>243525</v>
+        <v>252666</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -727,7 +757,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>243524</v>
+        <v>252680</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -741,18 +771,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>243529</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A15" t="n">
+        <v>251790</v>
       </c>
     </row>
     <row r="16">
@@ -787,14 +807,9 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>252071</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
+        <v>252277</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -802,9 +817,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>252277</v>
+        <v>252364</v>
       </c>
       <c r="H19" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -812,7 +837,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>252364</v>
+        <v>252476</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -832,12 +857,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>252476</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252207</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -852,7 +872,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>252207</v>
+        <v>252209</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -867,7 +887,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>244828</v>
+        <v>252210</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -882,7 +902,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>252237</v>
+        <v>252378</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -897,7 +917,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>252201</v>
+        <v>252362</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -912,7 +932,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>252063</v>
+        <v>252201</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -972,12 +992,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>252047</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252245</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -992,7 +1007,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>252144</v>
+        <v>252417</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1012,19 +1027,9 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>252146</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
+        <v>251704</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1032,12 +1037,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>252417</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252890</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -1052,12 +1052,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>252418</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252547</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -1071,30 +1066,20 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>241783</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A35" t="n">
+        <v>252350</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>252140</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>252638</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1102,7 +1087,12 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>252547</v>
+        <v>252470</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -1117,7 +1107,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>252350</v>
+        <v>252790</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -1132,7 +1122,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>252638</v>
+        <v>252336</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -1147,12 +1137,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>252470</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252334</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -1167,14 +1152,9 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>252790</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
+        <v>251849</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1182,7 +1162,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>252336</v>
+        <v>252220</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -1197,7 +1177,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>252334</v>
+        <v>252085</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -1212,7 +1192,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>252345</v>
+        <v>252087</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -1227,7 +1207,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>252347</v>
+        <v>252369</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -1242,9 +1222,14 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>252286</v>
-      </c>
-      <c r="L46" t="inlineStr">
+        <v>251812</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1252,9 +1237,14 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>251849</v>
-      </c>
-      <c r="H47" t="inlineStr">
+        <v>252495</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1262,7 +1252,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>252220</v>
+        <v>252519</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -1277,7 +1267,17 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>251674</v>
+        <v>252453</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>251632</v>
+        <v>250383</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -1307,14 +1307,9 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>252085</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
+        <v>251231</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1322,7 +1317,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>252087</v>
+        <v>252814</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -1336,98 +1331,38 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>252402</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A53" t="n">
+        <v>243536</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>252546</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A54" t="n">
+        <v>243526</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>252230</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A55" t="n">
+        <v>243527</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>252243</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A56" t="n">
+        <v>243535</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>252244</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A57" t="n">
+        <v>243523</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>252152</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A58" t="n">
+        <v>251685</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>251798</v>
+        <v>252549</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -1442,49 +1377,39 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>251231</v>
-      </c>
-      <c r="H60" t="inlineStr">
+        <v>252978</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>252814</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A61" t="n">
+        <v>252785</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252284</v>
+        <v>252784</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252285</v>
+        <v>252783</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>252636</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
+        <v>252983</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1492,12 +1417,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>252652</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252157</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -1512,7 +1432,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>251685</v>
+        <v>252980</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -1527,7 +1447,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>252549</v>
+        <v>252999</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -1542,7 +1462,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>252978</v>
+        <v>251926</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -1557,7 +1477,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>252785</v>
+        <v>251495</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -1571,23 +1491,13 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>252784</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A70" t="n">
+        <v>252456</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>252783</v>
+        <v>252899</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -1602,12 +1512,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>252983</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252467</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -1622,7 +1527,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>252157</v>
+        <v>252755</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -1637,7 +1542,12 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>252980</v>
+        <v>251889</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -1652,7 +1562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>252997</v>
+        <v>252662</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -1667,7 +1577,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>252999</v>
+        <v>252473</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -1682,7 +1592,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>251926</v>
+        <v>252656</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -1697,7 +1607,12 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>251495</v>
+        <v>252450</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -1712,7 +1627,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>252456</v>
+        <v>252779</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -1727,7 +1642,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>252899</v>
+        <v>252426</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -1742,7 +1657,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>252467</v>
+        <v>252576</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -1757,7 +1672,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>252755</v>
+        <v>252598</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -1765,6 +1680,111 @@
         </is>
       </c>
       <c r="P82" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>252517</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>252507</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>252511</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>252414</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>252354</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>252778</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>

--- a/PS-VRP/Dati_output/errori_lettura.xlsx
+++ b/PS-VRP/Dati_output/errori_lettura.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,17 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>233333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>243335</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -552,7 +542,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>235572</v>
+        <v>243569</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -567,7 +557,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>243569</v>
+        <v>244023</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -582,7 +572,12 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>244023</v>
+        <v>245623</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -597,7 +592,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>245623</v>
+        <v>245089</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -617,12 +612,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>245089</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>250284</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -637,7 +627,12 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>250284</v>
+        <v>251310</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -652,12 +647,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>251310</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252466</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -672,17 +662,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>251905</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251919</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -697,7 +677,12 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>251919</v>
+        <v>252665</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -712,12 +697,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>252665</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251790</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -732,17 +712,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>252666</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>243525</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -757,7 +727,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>252680</v>
+        <v>243524</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -771,8 +741,18 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>251790</v>
+      <c r="A15" s="1" t="n">
+        <v>243529</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -807,9 +787,14 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>252277</v>
-      </c>
-      <c r="H18" t="inlineStr">
+        <v>252071</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -817,19 +802,9 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>252364</v>
+        <v>252277</v>
       </c>
       <c r="H19" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -837,7 +812,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>252476</v>
+        <v>252364</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -857,7 +832,12 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>252207</v>
+        <v>252476</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -872,7 +852,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>252209</v>
+        <v>252207</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -887,7 +867,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>252210</v>
+        <v>244828</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -902,7 +882,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>252378</v>
+        <v>252237</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -917,7 +897,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>252362</v>
+        <v>252201</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -932,7 +912,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>252201</v>
+        <v>252063</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -992,7 +972,12 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>252245</v>
+        <v>252047</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -1007,7 +992,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>252417</v>
+        <v>252144</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1027,9 +1012,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>251704</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>252146</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1037,7 +1032,12 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>252890</v>
+        <v>252417</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -1052,7 +1052,12 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>252547</v>
+        <v>252418</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -1066,20 +1071,30 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>252350</v>
+      <c r="A35" s="1" t="n">
+        <v>241783</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>252638</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
+        <v>252140</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1087,12 +1102,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>252470</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252547</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -1107,7 +1117,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>252790</v>
+        <v>252350</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -1122,7 +1132,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>252336</v>
+        <v>252638</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -1137,7 +1147,12 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>252334</v>
+        <v>252470</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -1152,9 +1167,14 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>251849</v>
-      </c>
-      <c r="H41" t="inlineStr">
+        <v>252790</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1162,7 +1182,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>252220</v>
+        <v>252336</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -1177,7 +1197,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>252085</v>
+        <v>252334</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -1192,7 +1212,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>252087</v>
+        <v>252345</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -1207,7 +1227,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>252369</v>
+        <v>252347</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -1222,14 +1242,9 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>251812</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
+        <v>252286</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1237,14 +1252,9 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>252495</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
+        <v>251849</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1252,7 +1262,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>252519</v>
+        <v>252220</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -1267,17 +1277,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>252453</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251674</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>250383</v>
+        <v>251632</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -1307,9 +1307,14 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>251231</v>
-      </c>
-      <c r="H51" t="inlineStr">
+        <v>252085</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1317,7 +1322,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>252814</v>
+        <v>252087</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -1331,38 +1336,98 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>243536</v>
+      <c r="A53" s="1" t="n">
+        <v>252402</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>243526</v>
+      <c r="A54" s="1" t="n">
+        <v>252546</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>243527</v>
+      <c r="A55" s="1" t="n">
+        <v>252230</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>243535</v>
+      <c r="A56" s="1" t="n">
+        <v>252243</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>243523</v>
+      <c r="A57" s="1" t="n">
+        <v>252244</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>251685</v>
+      <c r="A58" s="1" t="n">
+        <v>252152</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>252549</v>
+        <v>251798</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -1377,39 +1442,49 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>252978</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
+        <v>251231</v>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>252785</v>
+      <c r="A61" s="1" t="n">
+        <v>252814</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252784</v>
+        <v>252284</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252783</v>
+        <v>252285</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>252983</v>
-      </c>
-      <c r="L64" t="inlineStr">
+        <v>252636</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1417,7 +1492,12 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>252157</v>
+        <v>252652</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -1432,7 +1512,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>252980</v>
+        <v>251685</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -1447,7 +1527,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>252999</v>
+        <v>252549</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -1462,7 +1542,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>251926</v>
+        <v>252978</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -1477,7 +1557,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>251495</v>
+        <v>252785</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -1491,13 +1571,23 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>252456</v>
+      <c r="A70" s="1" t="n">
+        <v>252784</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>252899</v>
+        <v>252783</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -1512,7 +1602,12 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>252467</v>
+        <v>252983</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -1527,7 +1622,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>252755</v>
+        <v>252157</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -1542,12 +1637,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>251889</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252980</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -1562,7 +1652,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>252662</v>
+        <v>252997</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -1577,7 +1667,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>252473</v>
+        <v>252999</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -1592,7 +1682,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>252656</v>
+        <v>251926</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -1607,12 +1697,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>252450</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251495</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -1627,7 +1712,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>252779</v>
+        <v>252456</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -1642,7 +1727,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>252426</v>
+        <v>252899</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -1657,7 +1742,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>252576</v>
+        <v>252467</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -1672,7 +1757,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>252598</v>
+        <v>252755</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -1680,111 +1765,6 @@
         </is>
       </c>
       <c r="P82" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>252517</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>252507</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>252511</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>252414</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>252354</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>252778</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>

--- a/PS-VRP/Dati_output/errori_lettura.xlsx
+++ b/PS-VRP/Dati_output/errori_lettura.xlsx
@@ -527,7 +527,12 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>243335</v>
+        <v>245089</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -542,7 +547,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>243569</v>
+        <v>252713</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -557,7 +562,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>244023</v>
+        <v>251632</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -572,12 +577,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>245623</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252334</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -592,12 +592,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>245089</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252157</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -612,7 +607,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>250284</v>
+        <v>252686</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -627,12 +622,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>251310</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252999</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -647,14 +637,9 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>252466</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+        <v>251231</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -662,7 +647,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>251919</v>
+        <v>243335</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -677,12 +662,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>252665</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251790</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -697,7 +677,12 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>251790</v>
+        <v>245623</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -712,7 +697,12 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>243525</v>
+        <v>252652</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -727,7 +717,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>243524</v>
+        <v>252899</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -742,7 +732,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>243529</v>
+        <v>252466</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -772,7 +762,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>252713</v>
+        <v>251674</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -787,7 +777,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>252071</v>
+        <v>250284</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -812,12 +802,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>252364</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252456</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -832,12 +817,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>252476</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>251919</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -852,14 +832,14 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>252207</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
+        <v>252140</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -867,7 +847,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>244828</v>
+        <v>243525</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -882,7 +862,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>252237</v>
+        <v>243529</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -897,7 +877,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>252201</v>
+        <v>251798</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -912,7 +892,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>252063</v>
+        <v>252336</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -927,7 +907,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>252371</v>
+        <v>252755</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -942,7 +922,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>252686</v>
+        <v>252244</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -957,7 +937,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>252298</v>
+        <v>251685</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -972,12 +952,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>252047</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252243</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -992,7 +967,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>252144</v>
+        <v>252364</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1012,12 +987,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>252146</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252549</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -1032,12 +1002,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>252417</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252347</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -1052,12 +1017,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>252418</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252237</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -1072,7 +1032,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>241783</v>
+        <v>252547</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -1087,14 +1047,14 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>252140</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>252467</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1102,7 +1062,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>252547</v>
+        <v>252220</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -1117,7 +1077,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>252350</v>
+        <v>252063</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -1132,7 +1092,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>252638</v>
+        <v>251926</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -1147,7 +1107,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>252470</v>
+        <v>252418</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1167,7 +1127,12 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>252790</v>
+        <v>252476</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -1182,7 +1147,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>252336</v>
+        <v>251495</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -1197,7 +1162,12 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>252334</v>
+        <v>251310</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -1212,7 +1182,12 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>252345</v>
+        <v>252047</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -1227,7 +1202,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>252347</v>
+        <v>252298</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -1242,9 +1217,19 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>252286</v>
-      </c>
-      <c r="L46" t="inlineStr">
+        <v>252146</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1252,9 +1237,14 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>251849</v>
-      </c>
-      <c r="H47" t="inlineStr">
+        <v>243524</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1262,7 +1252,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>252220</v>
+        <v>252230</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -1277,7 +1267,12 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>251674</v>
+        <v>252470</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -1292,7 +1287,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>251632</v>
+        <v>252638</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -1307,7 +1302,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>252085</v>
+        <v>252785</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -1322,7 +1317,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>252087</v>
+        <v>252546</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -1337,7 +1332,12 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>252402</v>
+        <v>252144</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>252546</v>
+        <v>252350</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>252230</v>
+        <v>252207</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -1381,38 +1381,18 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>252243</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A56" t="n">
+        <v>252286</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>252244</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A57" t="n">
+        <v>252284</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>252152</v>
+        <v>252814</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -1427,7 +1407,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>251798</v>
+        <v>252371</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -1442,42 +1422,62 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>251231</v>
+        <v>252665</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>252814</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A61" t="n">
+        <v>252285</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>252284</v>
+      <c r="A62" s="1" t="n">
+        <v>252071</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>252285</v>
+      <c r="A63" s="1" t="n">
+        <v>244828</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>252636</v>
+        <v>241783</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -1492,12 +1492,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>252652</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252345</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -1512,7 +1507,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>251685</v>
+        <v>252997</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -1527,7 +1522,12 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>252549</v>
+        <v>252417</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>252978</v>
+        <v>252087</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>252785</v>
+        <v>252201</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -1572,14 +1572,9 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>252784</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
+        <v>251849</v>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1587,7 +1582,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>252783</v>
+        <v>252085</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -1602,12 +1597,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>252983</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252152</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -1622,7 +1612,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>252157</v>
+        <v>252784</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -1637,7 +1627,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>252980</v>
+        <v>252402</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>252997</v>
+        <v>252978</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -1667,7 +1657,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>252999</v>
+        <v>243569</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -1682,7 +1672,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>251926</v>
+        <v>252980</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -1697,7 +1687,12 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>251495</v>
+        <v>252983</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -1712,7 +1707,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>252456</v>
+        <v>252790</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -1727,7 +1722,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>252899</v>
+        <v>252783</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -1742,7 +1737,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>252467</v>
+        <v>252636</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -1757,7 +1752,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>252755</v>
+        <v>244023</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>

--- a/PS-VRP/Dati_output/errori_lettura.xlsx
+++ b/PS-VRP/Dati_output/errori_lettura.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,9 +527,14 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>245089</v>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>233333</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -547,7 +552,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>252713</v>
+        <v>235572</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -562,7 +567,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>251632</v>
+        <v>243569</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -577,7 +582,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>252334</v>
+        <v>244023</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -592,7 +597,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>252157</v>
+        <v>250284</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -607,7 +612,12 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>252686</v>
+        <v>251702</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -622,7 +632,12 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>252999</v>
+        <v>251310</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -637,9 +652,9 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>251231</v>
-      </c>
-      <c r="H9" t="inlineStr">
+        <v>252683</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -647,7 +662,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>243335</v>
+        <v>252980</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -662,7 +677,17 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>251790</v>
+        <v>252459</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -677,12 +702,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>245623</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252995</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -697,12 +717,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>252652</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>253140</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -717,7 +732,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>252899</v>
+        <v>253284</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -732,7 +747,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>252466</v>
+        <v>252843</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -747,7 +762,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>252723</v>
+        <v>253194</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -762,7 +777,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>251674</v>
+        <v>253317</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -777,7 +792,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>250284</v>
+        <v>253318</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -792,9 +807,14 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>252277</v>
-      </c>
-      <c r="H19" t="inlineStr">
+        <v>253313</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -802,7 +822,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>252456</v>
+        <v>253409</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -816,30 +836,20 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>251919</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A21" t="n">
+        <v>253295</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>252140</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>250891</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -847,7 +857,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>243525</v>
+        <v>253036</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -862,14 +872,9 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>243529</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
+        <v>252002</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -877,7 +882,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>251798</v>
+        <v>252216</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -891,103 +896,43 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>252336</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A26" t="n">
+        <v>253259</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>252755</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A27" t="n">
+        <v>253591</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>252244</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
+        <v>252596</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>251685</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A29" t="n">
+        <v>252702</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>252243</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A30" t="n">
+        <v>253016</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>252364</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A31" t="n">
+        <v>253362</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>252549</v>
+        <v>252569</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -1002,7 +947,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>252347</v>
+        <v>253249</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -1017,7 +962,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>252237</v>
+        <v>252883</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -1032,14 +977,14 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>252547</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
+        <v>251624</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1047,7 +992,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>252467</v>
+        <v>252833</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -1062,7 +1007,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>252220</v>
+        <v>253267</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -1077,7 +1022,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>252063</v>
+        <v>253268</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -1092,7 +1037,12 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>251926</v>
+        <v>252939</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -1107,12 +1057,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>252418</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>253072</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -1127,12 +1072,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>252476</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>252906</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -1147,7 +1087,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>251495</v>
+        <v>253260</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -1161,83 +1101,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>251310</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A43" t="n">
+        <v>253314</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>252047</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A44" t="n">
+        <v>252685</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>252298</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A45" t="n">
+        <v>252681</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>252146</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A46" t="n">
+        <v>252682</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>243524</v>
+        <v>253425</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -1252,7 +1137,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>252230</v>
+        <v>253208</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -1267,12 +1152,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>252470</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>253210</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -1287,7 +1167,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>252638</v>
+        <v>252601</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -1301,38 +1181,18 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>252785</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A51" t="n">
+        <v>252582</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>252546</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A52" t="n">
+        <v>252679</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>252144</v>
+        <v>253686</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -1352,7 +1212,12 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>252350</v>
+        <v>253687</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -1367,7 +1232,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>252207</v>
+        <v>253361</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -1381,18 +1246,48 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>252286</v>
+      <c r="A56" s="1" t="n">
+        <v>252827</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>252284</v>
+      <c r="A57" s="1" t="n">
+        <v>252815</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>252814</v>
+        <v>253524</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -1407,7 +1302,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>252371</v>
+        <v>253359</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -1422,12 +1317,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>252665</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>253223</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -1441,13 +1331,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>252285</v>
+      <c r="A61" s="1" t="n">
+        <v>253100</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>252071</v>
+        <v>253095</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -1462,7 +1367,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>244828</v>
+        <v>253436</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -1477,7 +1382,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>241783</v>
+        <v>253261</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -1492,7 +1397,12 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>252345</v>
+        <v>253706</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -1507,7 +1417,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>252997</v>
+        <v>253710</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -1522,19 +1432,9 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>252417</v>
+        <v>252664</v>
       </c>
       <c r="H67" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1542,7 +1442,12 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>252087</v>
+        <v>253659</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -1557,7 +1462,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>252201</v>
+        <v>253527</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -1572,9 +1477,14 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>251849</v>
-      </c>
-      <c r="H70" t="inlineStr">
+        <v>253374</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>
@@ -1582,7 +1492,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>252085</v>
+        <v>253375</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -1597,7 +1507,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>252152</v>
+        <v>253372</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -1612,7 +1522,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>252784</v>
+        <v>253278</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -1627,7 +1537,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>252402</v>
+        <v>253455</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -1642,7 +1552,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>252978</v>
+        <v>252529</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -1657,7 +1567,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>243569</v>
+        <v>252274</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -1672,7 +1582,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>252980</v>
+        <v>252397</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -1687,12 +1597,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>252983</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>253721</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -1706,23 +1611,13 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>252790</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="A79" t="n">
+        <v>253497</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>252783</v>
+        <v>253401</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -1737,7 +1632,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>252636</v>
+        <v>253368</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -1752,7 +1647,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>244023</v>
+        <v>253370</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -1760,6 +1655,321 @@
         </is>
       </c>
       <c r="P82" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>253377</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>253376</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>253367</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>253525</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>253246</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>253245</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>253247</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>253522</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>244743</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>253528</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>252741</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>253549</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>253244</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>253271</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>253332</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>253668</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>253392</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>253393</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>253472</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>253602</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>253371</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
         <is>
           <t>CAMPO VUOTO</t>
         </is>

--- a/PS-VRP/Dati_output/errori_lettura.xlsx
+++ b/PS-VRP/Dati_output/errori_lettura.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
         <v>233333</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45903</v>
+        <v>45845</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -599,10 +599,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251702</v>
+        <v>251310</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45903</v>
+        <v>45770</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -610,20 +610,20 @@
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45853</v>
+        <v>45769</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>60063</v>
+        <v>8611</v>
       </c>
       <c r="G3" t="n">
-        <v>4607</v>
+        <v>336</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="K3" t="n">
-        <v>1020</v>
+        <v>820</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
@@ -663,31 +663,33 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251310</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45770</v>
+        <v>251905</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STAMPATO</t>
+          <t>IN STAMPA</t>
         </is>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45769</v>
+        <v>45805</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>8611</v>
+        <v>13841</v>
       </c>
       <c r="G4" t="n">
-        <v>336</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>CAMPO VUOTO</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -696,15 +698,13 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>410</v>
+        <v>165</v>
       </c>
       <c r="K4" t="n">
-        <v>820</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>825</v>
+      </c>
+      <c r="L4" t="n">
+        <v>76</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -727,31 +727,33 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252683</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45903</v>
+        <v>252666</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>STAMPATO</t>
+          <t>DA STAMPARE</t>
         </is>
       </c>
       <c r="D5" s="1" t="n">
         <v>45901</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>19381</v>
+        <v>13175</v>
       </c>
       <c r="G5" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>CAMPO VUOTO</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -760,15 +762,13 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>820</v>
+        <v>680</v>
       </c>
       <c r="K5" t="n">
-        <v>820</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+        <v>680</v>
+      </c>
+      <c r="L5" t="n">
+        <v>70</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -776,87 +776,87 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>40295</v>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252459</v>
+        <v>251704</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45855</v>
+        <v>45846</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>STAMPATO</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+      <c r="D6" s="1" t="n">
+        <v>45848</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>28904</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2217</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>340</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Dati OK</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>91</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>200</v>
-      </c>
-      <c r="K6" t="n">
-        <v>480</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Dati OK</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3</v>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>40054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252596</v>
+        <v>252453</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45904</v>
+        <v>45845</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -864,32 +864,32 @@
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45873</v>
+        <v>45835</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>3497</v>
+        <v>2990</v>
       </c>
       <c r="G7" t="n">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5 / 9</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>bobina</t>
+          <t>3 / 4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>470</v>
+        <v>190</v>
       </c>
       <c r="K7" t="n">
-        <v>940</v>
+        <v>760</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Dati OK</t>
+          <t xml:space="preserve"> ERR tipologia incarto non definita</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -906,19 +906,21 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>40295</v>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251624</v>
+        <v>252983</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45908</v>
+        <v>45847</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -926,53 +928,181 @@
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45895</v>
+        <v>45862</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1912</v>
+      </c>
+      <c r="G8" t="n">
+        <v>97</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>85</v>
+      </c>
+      <c r="K8" t="n">
+        <v>425</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Dati OK</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>40055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>252450</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>IN STAMPA</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>45849</v>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>10957</v>
-      </c>
-      <c r="G8" t="n">
-        <v>574</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="F9" t="n">
+        <v>5718</v>
+      </c>
+      <c r="G9" t="n">
+        <v>300</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>bobina</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>155</v>
-      </c>
-      <c r="K8" t="n">
-        <v>620</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>CAMPO VUOTO</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="J9" t="n">
+        <v>390</v>
+      </c>
+      <c r="K9" t="n">
+        <v>780</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Dati OK</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="N9" t="n">
         <v>0</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>40308</v>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>252354</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45849</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>IN STAMPA</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5060</v>
+      </c>
+      <c r="G10" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>85</v>
+      </c>
+      <c r="K10" t="n">
+        <v>595</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Dati OK</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>CAMPO VUOTO</t>
+        </is>
       </c>
     </row>
   </sheetData>
